--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3631809.835621345</v>
+        <v>3749018.14242541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11143223.90601995</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7702691.358317317</v>
+        <v>7724746.986121998</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>130.4850290902706</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>121.1693910461994</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>167.0947566690321</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>104.3225890499765</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.31445879761192</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>97.76752553452891</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.1533899787501</v>
+        <v>403.2987608046737</v>
       </c>
       <c r="G8" t="n">
-        <v>11.43714135353491</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.275240877313</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>92.26024958059011</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>18.18624318344743</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>133.2658462320107</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>191.828123840699</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8053112726921</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.68874937476693</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>99.32764374521085</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>193.7981713870603</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>220.5367941620016</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2244489913895</v>
+        <v>195.7428711222187</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>45.89043756183489</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>32.27552175740387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.29785174158872</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187897</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>127.1477159870284</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8253826161908461</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969964</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0.6197054599903095</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808113</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>147.0792452528018</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>54.32649042089665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>923.9266662611112</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>512.9407614715037</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2343.549589573795</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1348.789410182911</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C5" t="n">
-        <v>979.8268932424994</v>
+        <v>1314.359190390701</v>
       </c>
       <c r="D5" t="n">
-        <v>621.561194635749</v>
+        <v>956.0934917839502</v>
       </c>
       <c r="E5" t="n">
-        <v>235.7729420375047</v>
+        <v>570.3052391857059</v>
       </c>
       <c r="F5" t="n">
-        <v>66.99035954353293</v>
+        <v>159.3193343960983</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,25 +4567,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>478.6443448337932</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>1031.457603079992</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1663.175414063304</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1857.509626955287</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2404.670831722364</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4598,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.457387763373</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.394500419803</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.394500419803</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.928742158723</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.789410182911</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.3646662469702</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>792.9116369658432</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>484.7397722991365</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>121.5508014837215</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>592.9687148475971</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.514064314702</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1432.170805967367</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>1981.606814720089</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2405.574583200926</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>633.9825319621511</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="C7" t="n">
-        <v>633.9825319621511</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="D7" t="n">
-        <v>633.9825319621511</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="E7" t="n">
-        <v>486.069438379758</v>
+        <v>368.9169416640007</v>
       </c>
       <c r="F7" t="n">
-        <v>339.1794908818476</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>170.572645877231</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>71.81756957972706</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>71.81756957972706</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>1053.877663279709</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>923.3997019991118</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>923.3997019991118</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>923.3997019991118</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>923.3997019991118</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>923.3997019991118</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>633.9825319621511</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>633.9825319621511</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.9825319621511</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.6033789673891</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="C8" t="n">
-        <v>571.6408620269774</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="D8" t="n">
-        <v>571.6408620269774</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="E8" t="n">
-        <v>185.8526094287332</v>
+        <v>1196.626364472714</v>
       </c>
       <c r="F8" t="n">
-        <v>65.49564985423811</v>
+        <v>789.2538788114275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,52 +4804,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>199.5143021373487</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>468.4264940665502</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>838.9376088552594</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1282.872051350723</v>
+        <v>1663.175414063304</v>
       </c>
       <c r="N8" t="n">
-        <v>1738.603625623768</v>
+        <v>2290.483082123151</v>
       </c>
       <c r="O8" t="n">
-        <v>2155.602766936376</v>
+        <v>2460.65210744011</v>
       </c>
       <c r="P8" t="n">
-        <v>2477.000885571628</v>
+        <v>2571.386432689637</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.18474111696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.576964538517</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.576964538517</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.808309268402</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.342551007323</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="Y8" t="n">
-        <v>1327.203219031511</v>
+        <v>1583.226204536836</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3062050962127</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8531758150857</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9187661538344</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>448.681311148379</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>302.146753175264</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>165.5050957234327</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>72.31292442990731</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>121.8264159807866</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>537.8115956207098</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>845.2309936650815</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1223.331799318883</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1625.848453140027</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1971.85275817634</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2230.218651003075</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.986726597623</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.986726597623</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.374760706703</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.608979049431</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.522806046712</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.370697814969</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.133341086767</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.281840881235</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.521542116281</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.4429458261145</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="C10" t="n">
-        <v>362.4429458261145</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="D10" t="n">
-        <v>362.4429458261145</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="E10" t="n">
-        <v>362.4429458261145</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5529983282042</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>215.5529983282042</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>158.2916353233891</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
+        <v>71.81756957972706</v>
+      </c>
+      <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J10" t="n">
-        <v>82.88339090485941</v>
-      </c>
       <c r="K10" t="n">
-        <v>260.2782098866545</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>542.8089378877605</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>851.0870999282812</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>1157.469712732903</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>1424.447349606354</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>1629.372157534689</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>1687.816392302166</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.485439024175</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1391.729710350377</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1168.9652718029</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>879.8496667610925</v>
+        <v>292.6101487232572</v>
       </c>
       <c r="V10" t="n">
-        <v>879.8496667610925</v>
+        <v>292.6101487232572</v>
       </c>
       <c r="W10" t="n">
-        <v>590.4324967241319</v>
+        <v>292.6101487232572</v>
       </c>
       <c r="X10" t="n">
-        <v>362.4429458261145</v>
+        <v>292.6101487232572</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.4429458261145</v>
+        <v>71.81756957972706</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5054,22 +5056,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5136,10 +5138,10 @@
         <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2400.609106245074</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2217.754271899978</v>
       </c>
       <c r="T13" t="n">
-        <v>2414.36154645157</v>
+        <v>1998.152806922919</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1709.077580267117</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1454.39309206123</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>944.1833428807392</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797194</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,28 +5776,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,13 +6071,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
         <v>1344.266747951538</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>277.5052172074016</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6409,13 +6411,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
         <v>2018.514925172274</v>
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.493192213312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.086956247061</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796382</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175645</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.757116639391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315927</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.909080119781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612652</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229213</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.92099021381</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519664</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275434</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.333946200129</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081895</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,10 +6946,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7029,7 +7031,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3743.991173103649</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3516.001622205632</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3295.209043062102</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213312</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612653</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229214</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519665</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>868.6673633290468</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952728</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>148.6919058973624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8225,16 +8227,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>148.2422363886232</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>337.5639548971532</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>91.69549323938426</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0472258793179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>17.26494649393206</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23416,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>20.4848091482868</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>40.09910511159944</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>117.6820817884491</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>285.9032928766007</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>105.0583980710262</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.1976478713722</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705305.786361319</v>
+        <v>727696.6921738412</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>665626.6165690706</v>
+        <v>705305.786361319</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055057</v>
@@ -26326,34 +26328,34 @@
         <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.269705506</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>196446.3877966352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>315238.2384513058</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>475327.3220074723</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26392,16 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
+        <v>209922.4154630333</v>
+      </c>
+      <c r="D4" t="n">
         <v>176266.9759012793</v>
       </c>
-      <c r="D4" t="n">
-        <v>121617.1617317167</v>
-      </c>
       <c r="E4" t="n">
-        <v>5677.536566682703</v>
+        <v>5677.536566682763</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682729</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682727</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13668.39582977621</v>
-      </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977621</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>87562.0451708468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>95586.42776879412</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26485,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699185</v>
+        <v>-102759.6913699182</v>
       </c>
       <c r="C6" t="n">
-        <v>319714.2725023074</v>
+        <v>487208.187844626</v>
       </c>
       <c r="D6" t="n">
-        <v>247547.8534192521</v>
+        <v>331404.3817508311</v>
       </c>
       <c r="E6" t="n">
-        <v>184661.8813074435</v>
+        <v>-111063.4880658907</v>
       </c>
       <c r="F6" t="n">
         <v>659989.2033149159</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.203314916</v>
+        <v>659989.2033149159</v>
       </c>
       <c r="H6" t="n">
         <v>659989.2033149158</v>
       </c>
       <c r="I6" t="n">
+        <v>659989.203314916</v>
+      </c>
+      <c r="J6" t="n">
+        <v>483565.9841223229</v>
+      </c>
+      <c r="K6" t="n">
         <v>659989.2033149162</v>
       </c>
-      <c r="J6" t="n">
-        <v>483565.9841223228</v>
-      </c>
-      <c r="K6" t="n">
-        <v>643729.451693746</v>
-      </c>
       <c r="L6" t="n">
-        <v>663157.1696873778</v>
+        <v>659989.203314916</v>
       </c>
       <c r="M6" t="n">
-        <v>538948.6589793195</v>
+        <v>535780.6926068574</v>
       </c>
       <c r="N6" t="n">
-        <v>663157.169687378</v>
+        <v>659989.2033149158</v>
       </c>
       <c r="O6" t="n">
-        <v>663157.1696873778</v>
+        <v>659989.2033149161</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.203314916</v>
+        <v>659989.2033149163</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>961.5670451980344</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>215.7324361209784</v>
       </c>
-      <c r="D3" t="n">
-        <v>368.0909448599693</v>
-      </c>
       <c r="E3" t="n">
-        <v>406.4084551436393</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>283.2991409305243</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>95.27892931145841</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27593,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>239.7812890726794</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>309.4615809708184</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>46.10658922531933</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>54.94457113470364</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>287.7226557629613</v>
+        <v>3.577284937037689</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>61.44749355031655</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2570059982656</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>90.12182362113694</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.51778353587832</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.865596161600136</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>39.5885366899874</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>149.0283960200894</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>328.0876422206098</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>491.7183277411436</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>610.0200662717139</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>678.7648620105703</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>689.7479871047167</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>651.3094652728054</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>555.8775600333018</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>417.4408974959969</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>242.8222548861147</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>88.08727253246317</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>16.9216471974046</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.068276285897659</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>19.97519465590634</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>71.21038966796765</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>195.4067520812345</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>333.9812632363777</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>449.0790242691386</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>524.0540396329287</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>537.9241906905495</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>492.0955424609224</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>394.9500567342644</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>264.0136536173924</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>128.4145574700319</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>38.41732487182711</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>8.336604854122578</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.733973360193177</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>15.41659951153571</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>52.14530795926391</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>122.5919165656576</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>201.4561776660799</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>257.7945484781747</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>271.8082059073722</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>265.3452142921069</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>245.0892527662138</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>209.7161962182728</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.1966238249032</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>77.96574763195864</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>30.21842664991199</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>7.408795266279935</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31856,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>232.75998908852</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143577</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33026,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33502,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33749,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>260.0950901760237</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>476.1797104685612</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0417376939235</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>271.6284766961631</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>374.2536513017266</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>448.4186287832975</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>460.3349235081258</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>421.2112538511186</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>324.6445642780323</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.1352076215474</v>
+        <v>127.0329882106925</v>
       </c>
       <c r="R8" t="n">
-        <v>27.23671707198258</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>68.56912541456785</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>420.1870501413366</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>310.5246444892645</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>381.9200057109104</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>406.5824786072162</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>349.499298016478</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>260.9756493199342</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>334.10916726722</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>29.23273644898481</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>179.1866858401971</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>285.3845737384909</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>311.3920828692128</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>309.4773866713355</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>269.6743806802535</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>206.9947554831663</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>59.0345805732088</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243171</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>98.78558167418976</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902445</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>171.2123056344834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36613,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37148,10 +37150,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.14242541</v>
+        <v>3744712.42604934</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7724746.986121998</v>
+        <v>7724746.986121997</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>33.09208962550444</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>121.1693910461994</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>192.06074829665</v>
       </c>
       <c r="G5" t="n">
-        <v>104.3225890499765</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>99.31445879761192</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>403.2987608046737</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>55.51702612691297</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.7428711222187</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>45.89043756183489</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>54.29785174158872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>127.1477159870284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>28.75188085812005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>87.71169339385462</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0.6197054599903095</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>147.0792452528018</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>25.52471385612679</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4188,16 +4188,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2343.549589573795</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2089.787804211887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.787804211887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240415</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1683.321707331112</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>1314.359190390701</v>
+        <v>1159.387068946881</v>
       </c>
       <c r="D5" t="n">
-        <v>956.0934917839502</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="E5" t="n">
-        <v>570.3052391857059</v>
+        <v>415.3331177418859</v>
       </c>
       <c r="F5" t="n">
-        <v>159.3193343960983</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9169416640007</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C7" t="n">
-        <v>368.9169416640007</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>368.9169416640007</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>368.9169416640007</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1196.626364472714</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.626364472714</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1196.626364472714</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>1196.626364472714</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>2290.483082123151</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2460.65210744011</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2571.386432689637</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.365536512648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.365536512648</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.226204536836</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1161.146333608973</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.81756957972706</v>
+        <v>685.6734330002731</v>
       </c>
       <c r="C10" t="n">
-        <v>71.81756957972706</v>
+        <v>516.7372500723662</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>366.6206106600305</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
         <v>71.81756957972706</v>
@@ -4989,25 +4989,25 @@
         <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>715.9594172515172</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="T10" t="n">
-        <v>490.3302205638821</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="U10" t="n">
-        <v>292.6101487232572</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="V10" t="n">
-        <v>292.6101487232572</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="W10" t="n">
-        <v>292.6101487232572</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="X10" t="n">
-        <v>292.6101487232572</v>
+        <v>867.3218978305129</v>
       </c>
       <c r="Y10" t="n">
-        <v>71.81756957972706</v>
+        <v>867.3218978305129</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,31 +5056,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5348780504995</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504995</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2400.609106245074</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2217.754271899978</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1998.152806922919</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1709.077580267117</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1454.39309206123</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1164.975922024269</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.975922024269</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>944.1833428807392</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>984.5772922261132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.167399417937</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1888.077129657224</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3113.560578231862</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2944.624395303955</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.50775589162</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3743.991173103649</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.001622205632</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.209043062102</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>868.6673633290468</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>710.248605371872</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,13 +8467,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.69549323938426</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>73.09871788457454</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.4848091482868</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>112.9489693570391</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>40.09910511159944</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>44.51847645928555</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6820817884491</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>93.31459260778998</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.9032928766007</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>105.0583980710262</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>191.8807364711615</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.654869427746674e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.654869427746674e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682763</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682786</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699182</v>
+        <v>-102759.6913699184</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.187844626</v>
+        <v>487208.1878446263</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.3817508311</v>
+        <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658907</v>
+        <v>-111410.8673202471</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605589</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.2033149158</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.203314916</v>
+        <v>659641.8240605593</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.9841223229</v>
+        <v>483218.6048679659</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.2033149162</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.203314916</v>
+        <v>659641.824060559</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068574</v>
+        <v>535433.3133525008</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149158</v>
+        <v>659641.8240605594</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605593</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.2033149163</v>
+        <v>659641.8240605589</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>332.1808021455031</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>95.27892931145841</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>214.8152974450614</v>
       </c>
       <c r="G5" t="n">
-        <v>309.4615809708184</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>46.10658922531933</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.6754007031938727</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.577284937037689</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28061,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>149.8488557732057</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>90.51778353587832</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>8.953513792444657e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>431.3680753731354</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188757</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>533.0479862785273</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,25 +33979,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>272.756932936465</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35187,13 +35187,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>127.0329882106925</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>273.7620932913065</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,19 +35500,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>297.3936679588052</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>368.5488557045454</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>399.073578864197</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558158</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>134.2025531565909</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3744712.42604934</v>
+        <v>3746472.956352125</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7724746.986121997</v>
+        <v>7724746.986121998</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>33.09208962550444</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>294.9449434014383</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365811</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>192.06074829665</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>256.9764698836382</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>171.4701275066043</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>55.51702612691297</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>153.589961858651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.3135037226517</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>87.71169339385462</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3319,7 +3319,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>177.1006680594869</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4309,31 +4309,31 @@
         <v>512.2786438284563</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>512.2786438284563</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>505.3331430792529</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,34 +4494,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
         <v>571.3497027553424</v>
@@ -4552,13 +4552,13 @@
         <v>801.1213703401302</v>
       </c>
       <c r="E5" t="n">
-        <v>415.3331177418859</v>
+        <v>801.1213703401302</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>794.1758695909267</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4649,13 +4649,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
         <v>517.7458231623355</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3942879925752</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1764.194881475117</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1395.232364534705</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>1036.966665927955</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>651.1784133297106</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>240.192508540103</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>227.1451308169345</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,22 +4807,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>2150.794721539239</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.6734330002731</v>
+        <v>651.4366193059393</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7372500723662</v>
+        <v>482.5004363780324</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6206106600305</v>
+        <v>332.3837969656967</v>
       </c>
       <c r="E10" t="n">
-        <v>218.7075170776374</v>
+        <v>184.4707033833035</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>867.3218978305129</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3218978305129</v>
+        <v>833.085084136179</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5083,7 +5083,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,19 +5123,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2517.442480416598</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,40 +5740,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,43 +5910,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
         <v>1202.091371290588</v>
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6250,13 +6250,13 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6454,37 +6454,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2291.319709737861</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2071.718244760802</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1782.643018104999</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1527.958529899112</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1238.541359862152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1010.551808964134</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,37 +6928,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,16 +7074,16 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7165,13 +7165,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,10 +7265,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7505,13 +7505,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7742,7 +7742,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2018.172981791116</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.097755135313</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8455,13 +8455,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8470,10 +8470,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>339.1843734049999</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>73.09871788457454</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.51847645928555</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>93.31459260778998</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055062</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.654869427746674e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.654869427746674e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26423,19 +26423,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682786</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
@@ -26444,22 +26444,22 @@
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="L4" t="n">
-        <v>5677.536566682729</v>
-      </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699184</v>
+        <v>-102759.6913699183</v>
       </c>
       <c r="C6" t="n">
         <v>487208.1878446263</v>
@@ -26530,40 +26530,40 @@
         <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>-111410.8673202471</v>
+        <v>-111098.2259913262</v>
       </c>
       <c r="F6" t="n">
-        <v>659641.8240605589</v>
+        <v>659954.4653894807</v>
       </c>
       <c r="G6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="H6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="I6" t="n">
-        <v>659641.8240605593</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="J6" t="n">
-        <v>483218.6048679659</v>
+        <v>483531.2461968873</v>
       </c>
       <c r="K6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="L6" t="n">
-        <v>659641.824060559</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="M6" t="n">
-        <v>535433.3133525008</v>
+        <v>535745.9546814219</v>
       </c>
       <c r="N6" t="n">
-        <v>659641.8240605594</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="O6" t="n">
-        <v>659641.8240605593</v>
+        <v>659954.4653894806</v>
       </c>
       <c r="P6" t="n">
-        <v>659641.8240605589</v>
+        <v>659954.4653894803</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>332.1808021455031</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>118.8392266193567</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724688</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>214.8152974450614</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>156.8077001371568</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6754007031938727</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>143.5707565686112</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>16.19860367562154</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>149.8488557732057</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>8.953513792444657e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>436.0678650906015</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>169.9530009943068</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>502.5232631188757</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33909,7 +33909,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236508</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34462,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35175,13 +35175,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35190,10 +35190,10 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>477.8001289764079</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>273.7620932913065</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>302.0934576762713</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.9785935799765</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>368.5488557045454</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
